--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2752,28 +2752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.730021188182</v>
+        <v>170.1781515155438</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.7118029755126</v>
+        <v>232.8452546336374</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.9877291477343</v>
+        <v>210.6228303318376</v>
       </c>
       <c r="AD2" t="n">
-        <v>135730.0211881819</v>
+        <v>170178.1515155438</v>
       </c>
       <c r="AE2" t="n">
-        <v>185711.8029755126</v>
+        <v>232845.2546336373</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.444970127793143e-06</v>
+        <v>6.408155255504567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.8359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>167987.7291477344</v>
+        <v>210622.8303318376</v>
       </c>
     </row>
     <row r="3">
@@ -2858,28 +2858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.16122911913652</v>
+        <v>97.51330556467489</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.6801301445964</v>
+        <v>133.4220066569552</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.21241246065364</v>
+        <v>120.6883976006134</v>
       </c>
       <c r="AD3" t="n">
-        <v>80161.22911913652</v>
+        <v>97513.3055646749</v>
       </c>
       <c r="AE3" t="n">
-        <v>109680.1301445964</v>
+        <v>133422.0066569552</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.63515054406292e-06</v>
+        <v>9.565660422359428e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.580078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>99212.41246065364</v>
+        <v>120688.3976006134</v>
       </c>
     </row>
     <row r="4">
@@ -2964,28 +2964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.43904974391454</v>
+        <v>90.62053398886071</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.4825477617985</v>
+        <v>123.9910124993105</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.89263443157913</v>
+        <v>112.1574842888879</v>
       </c>
       <c r="AD4" t="n">
-        <v>73439.04974391454</v>
+        <v>90620.53398886071</v>
       </c>
       <c r="AE4" t="n">
-        <v>100482.5477617985</v>
+        <v>123991.0124993105</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.406447347661036e-06</v>
+        <v>1.067761157690747e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.104817708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>90892.63443157912</v>
+        <v>112157.4842888879</v>
       </c>
     </row>
     <row r="5">
@@ -3070,28 +3070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.58755581177174</v>
+        <v>78.85429140273848</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.2668109128376</v>
+        <v>107.8919203029988</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.22450474854824</v>
+        <v>97.59486685656925</v>
       </c>
       <c r="AD5" t="n">
-        <v>61587.55581177174</v>
+        <v>78854.29140273848</v>
       </c>
       <c r="AE5" t="n">
-        <v>84266.81091283759</v>
+        <v>107891.9203029988</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.801105571702829e-06</v>
+        <v>1.124657629428728e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.896484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>76224.50474854824</v>
+        <v>97594.86685656925</v>
       </c>
     </row>
     <row r="6">
@@ -3176,28 +3176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.51054561641032</v>
+        <v>76.77728120737706</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.42495393232272</v>
+        <v>105.0500633224839</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.65387060968148</v>
+        <v>95.02423271770247</v>
       </c>
       <c r="AD6" t="n">
-        <v>59510.54561641032</v>
+        <v>76777.28120737706</v>
       </c>
       <c r="AE6" t="n">
-        <v>81424.95393232272</v>
+        <v>105050.0633224839</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.057488699977908e-06</v>
+        <v>1.161619472672753e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.772786458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>73653.87060968147</v>
+        <v>95024.23271770247</v>
       </c>
     </row>
     <row r="7">
@@ -3282,28 +3282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.92687762938116</v>
+        <v>75.19361322034791</v>
       </c>
       <c r="AB7" t="n">
-        <v>79.25810952596984</v>
+        <v>102.883218916131</v>
       </c>
       <c r="AC7" t="n">
-        <v>71.69382679228501</v>
+        <v>93.06418890030602</v>
       </c>
       <c r="AD7" t="n">
-        <v>57926.87762938116</v>
+        <v>75193.61322034791</v>
       </c>
       <c r="AE7" t="n">
-        <v>79258.10952596985</v>
+        <v>102883.218916131</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.217611447607828e-06</v>
+        <v>1.184703799389251e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>71693.82679228501</v>
+        <v>93064.18890030602</v>
       </c>
     </row>
     <row r="8">
@@ -3388,28 +3388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>56.93052994970105</v>
+        <v>74.19726554066781</v>
       </c>
       <c r="AB8" t="n">
-        <v>77.89486267487483</v>
+        <v>101.519972065036</v>
       </c>
       <c r="AC8" t="n">
-        <v>70.4606863073291</v>
+        <v>91.83104841535011</v>
       </c>
       <c r="AD8" t="n">
-        <v>56930.52994970106</v>
+        <v>74197.26554066781</v>
       </c>
       <c r="AE8" t="n">
-        <v>77894.86267487484</v>
+        <v>101519.972065036</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.332731767040882e-06</v>
+        <v>1.201300286177264e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>70460.6863073291</v>
+        <v>91831.04841535012</v>
       </c>
     </row>
     <row r="9">
@@ -3494,28 +3494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>57.03248192514712</v>
+        <v>74.29921751611387</v>
       </c>
       <c r="AB9" t="n">
-        <v>78.03435786548378</v>
+        <v>101.659467255645</v>
       </c>
       <c r="AC9" t="n">
-        <v>70.58686827272911</v>
+        <v>91.9572303807501</v>
       </c>
       <c r="AD9" t="n">
-        <v>57032.48192514712</v>
+        <v>74299.21751611387</v>
       </c>
       <c r="AE9" t="n">
-        <v>78034.35786548379</v>
+        <v>101659.467255645</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.328810393629539e-06</v>
+        <v>1.200734955727064e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.649088541666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>70586.8682727291</v>
+        <v>91957.2303807501</v>
       </c>
     </row>
   </sheetData>
@@ -3791,28 +3791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.5531034849316</v>
+        <v>127.8053741499403</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.3176805116393</v>
+        <v>174.8689512870428</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.9259580207476</v>
+        <v>158.1797040063708</v>
       </c>
       <c r="AD2" t="n">
-        <v>102553.1034849316</v>
+        <v>127805.3741499403</v>
       </c>
       <c r="AE2" t="n">
-        <v>140317.6805116392</v>
+        <v>174868.9512870428</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.414989402466282e-06</v>
+        <v>7.927340778979546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>126925.9580207476</v>
+        <v>158179.7040063708</v>
       </c>
     </row>
     <row r="3">
@@ -3897,28 +3897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.26602002887952</v>
+        <v>88.01561579286479</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.50931263838412</v>
+        <v>120.4268485026706</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.20316069538069</v>
+        <v>108.9334791017505</v>
       </c>
       <c r="AD3" t="n">
-        <v>71266.02002887952</v>
+        <v>88015.61579286479</v>
       </c>
       <c r="AE3" t="n">
-        <v>97509.31263838412</v>
+        <v>120426.8485026706</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.450343135310387e-06</v>
+        <v>1.090702207598718e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>88203.16069538069</v>
+        <v>108933.4791017505</v>
       </c>
     </row>
     <row r="4">
@@ -4003,28 +4003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.90449078857252</v>
+        <v>74.73933789857837</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.2274788627378</v>
+        <v>102.2616593796735</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.66611947656141</v>
+        <v>92.50195013364349</v>
       </c>
       <c r="AD4" t="n">
-        <v>57904.49078857253</v>
+        <v>74739.33789857836</v>
       </c>
       <c r="AE4" t="n">
-        <v>79227.4788627378</v>
+        <v>102261.6593796735</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.144988608029734e-06</v>
+        <v>1.192395691621301e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.860677083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>71666.11947656141</v>
+        <v>92501.95013364349</v>
       </c>
     </row>
     <row r="5">
@@ -4109,28 +4109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.32134169188195</v>
+        <v>72.15618880188779</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.69310030815232</v>
+        <v>98.72728082508802</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.46905705069298</v>
+        <v>89.30488770777507</v>
       </c>
       <c r="AD5" t="n">
-        <v>55321.34169188196</v>
+        <v>72156.18880188779</v>
       </c>
       <c r="AE5" t="n">
-        <v>75693.10030815232</v>
+        <v>98727.28082508802</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.510179727655965e-06</v>
+        <v>1.245858297723829e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.694661458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>68469.05705069298</v>
+        <v>89304.88770777507</v>
       </c>
     </row>
     <row r="6">
@@ -4215,28 +4215,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>54.0254467855776</v>
+        <v>70.86029389558342</v>
       </c>
       <c r="AB6" t="n">
-        <v>73.91999972649923</v>
+        <v>96.95418024343493</v>
       </c>
       <c r="AC6" t="n">
-        <v>66.86517869999</v>
+        <v>87.7010093570721</v>
       </c>
       <c r="AD6" t="n">
-        <v>54025.4467855776</v>
+        <v>70860.29389558343</v>
       </c>
       <c r="AE6" t="n">
-        <v>73919.99972649923</v>
+        <v>96954.18024343494</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.651195076678526e-06</v>
+        <v>1.266502414335756e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.6328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>66865.17869998999</v>
+        <v>87701.00935707209</v>
       </c>
     </row>
     <row r="7">
@@ -4321,28 +4321,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>53.83943445133669</v>
+        <v>70.67428156134254</v>
       </c>
       <c r="AB7" t="n">
-        <v>73.66548944450595</v>
+        <v>96.69966996144164</v>
       </c>
       <c r="AC7" t="n">
-        <v>66.63495852210265</v>
+        <v>87.47078917918473</v>
       </c>
       <c r="AD7" t="n">
-        <v>53839.4344513367</v>
+        <v>70674.28156134253</v>
       </c>
       <c r="AE7" t="n">
-        <v>73665.48944450595</v>
+        <v>96699.66996144164</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.71513491301615e-06</v>
+        <v>1.275862965840615e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.606770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>66634.95852210265</v>
+        <v>87470.78917918474</v>
       </c>
     </row>
   </sheetData>
@@ -4618,28 +4618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.53951083234877</v>
+        <v>73.98883695480768</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.09634130173914</v>
+        <v>101.2347908786421</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.45205890384082</v>
+        <v>91.57308452113121</v>
       </c>
       <c r="AD2" t="n">
-        <v>58539.51083234877</v>
+        <v>73988.83695480769</v>
       </c>
       <c r="AE2" t="n">
-        <v>80096.34130173914</v>
+        <v>101234.7908786421</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.578733697295801e-06</v>
+        <v>1.327235992782452e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.088541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>72452.05890384082</v>
+        <v>91573.08452113121</v>
       </c>
     </row>
     <row r="3">
@@ -4724,28 +4724,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.71200725793006</v>
+        <v>62.24658472640956</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.91342911859615</v>
+        <v>85.16852334814836</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.81362114659196</v>
+        <v>77.04015901459458</v>
       </c>
       <c r="AD3" t="n">
-        <v>46712.00725793006</v>
+        <v>62246.58472640956</v>
       </c>
       <c r="AE3" t="n">
-        <v>63913.42911859615</v>
+        <v>85168.52334814836</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.47294904801395e-06</v>
+        <v>1.465582145099294e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.704427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>57813.62114659196</v>
+        <v>77040.15901459458</v>
       </c>
     </row>
   </sheetData>
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.8000769003207</v>
+        <v>84.92834877838129</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.13530046015879</v>
+        <v>116.2027135728482</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.1511595039883</v>
+        <v>105.1124896810185</v>
       </c>
       <c r="AD2" t="n">
-        <v>68800.07690032071</v>
+        <v>84928.34877838129</v>
       </c>
       <c r="AE2" t="n">
-        <v>94135.30046015879</v>
+        <v>116202.7135728482</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.28637209303317e-06</v>
+        <v>1.101185019600641e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.606119791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>85151.1595039883</v>
+        <v>105112.4896810185</v>
       </c>
     </row>
     <row r="3">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.73127434352158</v>
+        <v>66.77420536701054</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.41276766264907</v>
+        <v>91.3634136531409</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.78811053837234</v>
+        <v>82.64381768346377</v>
       </c>
       <c r="AD3" t="n">
-        <v>50731.27434352158</v>
+        <v>66774.20536701054</v>
       </c>
       <c r="AE3" t="n">
-        <v>69412.76766264907</v>
+        <v>91363.4136531409</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.966169092278896e-06</v>
+        <v>1.355051726916913e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.743489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>62788.11053837234</v>
+        <v>82643.81768346377</v>
       </c>
     </row>
     <row r="4">
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.11387498903002</v>
+        <v>65.15680601251897</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.19977051121127</v>
+        <v>89.15041650170311</v>
       </c>
       <c r="AC4" t="n">
-        <v>60.78631872910604</v>
+        <v>80.64202587419747</v>
       </c>
       <c r="AD4" t="n">
-        <v>49113.87498903002</v>
+        <v>65156.80601251897</v>
       </c>
       <c r="AE4" t="n">
-        <v>67199.77051121127</v>
+        <v>89150.4165017031</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.290642524431259e-06</v>
+        <v>1.404089201009984e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.61328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>60786.31872910605</v>
+        <v>80642.02587419747</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.73271071752023</v>
+        <v>59.85033399180233</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.20526827160818</v>
+        <v>81.889867377939</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.36392336991203</v>
+        <v>74.07441336855841</v>
       </c>
       <c r="AD2" t="n">
-        <v>44732.71071752023</v>
+        <v>59850.33399180233</v>
       </c>
       <c r="AE2" t="n">
-        <v>61205.26827160818</v>
+        <v>81889.86737793899</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.551791231317767e-06</v>
+        <v>1.509649132735683e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.815104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>55363.92336991203</v>
+        <v>74074.41336855841</v>
       </c>
     </row>
     <row r="3">
@@ -5636,28 +5636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.80550866437783</v>
+        <v>59.92313193865994</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.30487363411743</v>
+        <v>81.98947274044825</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.45402253642045</v>
+        <v>74.16451253506682</v>
       </c>
       <c r="AD3" t="n">
-        <v>44805.50866437783</v>
+        <v>59923.13193865994</v>
       </c>
       <c r="AE3" t="n">
-        <v>61304.87363411744</v>
+        <v>81989.47274044825</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.566342674588576e-06</v>
+        <v>1.51194897086885e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.80859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>55454.02253642045</v>
+        <v>74164.51253506682</v>
       </c>
     </row>
   </sheetData>
@@ -5933,28 +5933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.7989636198729</v>
+        <v>142.136260231173</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.8094948312493</v>
+        <v>194.4771018574486</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.5575009386336</v>
+        <v>175.9164802065555</v>
       </c>
       <c r="AD2" t="n">
-        <v>116798.963619873</v>
+        <v>142136.260231173</v>
       </c>
       <c r="AE2" t="n">
-        <v>159809.4948312493</v>
+        <v>194477.1018574486</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.14274915197101e-06</v>
+        <v>7.497543475954256e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.057942708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>144557.5009386336</v>
+        <v>175916.4802065555</v>
       </c>
     </row>
     <row r="3">
@@ -6039,28 +6039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.41505096537527</v>
+        <v>90.27816492423511</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.4497115742498</v>
+        <v>123.5225680408329</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.8629320836841</v>
+        <v>111.7337475120613</v>
       </c>
       <c r="AD3" t="n">
-        <v>73415.05096537527</v>
+        <v>90278.16492423511</v>
       </c>
       <c r="AE3" t="n">
-        <v>100449.7115742498</v>
+        <v>123522.5680408329</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.232852459044397e-06</v>
+        <v>1.054467642973882e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.306640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>90862.93208368411</v>
+        <v>111733.7475120613</v>
       </c>
     </row>
     <row r="4">
@@ -6145,28 +6145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.83974503991242</v>
+        <v>76.78811034479286</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.87537910681165</v>
+        <v>105.064880226044</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.06130783769302</v>
+        <v>95.03763551678243</v>
       </c>
       <c r="AD4" t="n">
-        <v>59839.74503991241</v>
+        <v>76788.11034479286</v>
       </c>
       <c r="AE4" t="n">
-        <v>81875.37910681166</v>
+        <v>105064.880226044</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.911686158154329e-06</v>
+        <v>1.153433877212022e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.938802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>74061.30783769302</v>
+        <v>95037.63551678244</v>
       </c>
     </row>
     <row r="5">
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.02083251655188</v>
+        <v>73.96919782143232</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.01841863070818</v>
+        <v>101.2079197499405</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.57245025614961</v>
+        <v>91.54877793523903</v>
       </c>
       <c r="AD5" t="n">
-        <v>57020.83251655188</v>
+        <v>73969.19782143232</v>
       </c>
       <c r="AE5" t="n">
-        <v>78018.41863070818</v>
+        <v>101207.9197499405</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.318488642815525e-06</v>
+        <v>1.212741053680168e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.746744791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>70572.4502561496</v>
+        <v>91548.77793523904</v>
       </c>
     </row>
     <row r="6">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>54.7556784013266</v>
+        <v>71.70404370620705</v>
       </c>
       <c r="AB6" t="n">
-        <v>74.91913483871176</v>
+        <v>98.10863595794409</v>
       </c>
       <c r="AC6" t="n">
-        <v>67.76895775938821</v>
+        <v>88.74528543847764</v>
       </c>
       <c r="AD6" t="n">
-        <v>54755.6784013266</v>
+        <v>71704.04370620704</v>
       </c>
       <c r="AE6" t="n">
-        <v>74919.13483871176</v>
+        <v>98108.63595794409</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.58994554787415e-06</v>
+        <v>1.252316383671618e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.626302083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>67768.95775938821</v>
+        <v>88745.28543847764</v>
       </c>
     </row>
     <row r="7">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>54.79881394768124</v>
+        <v>71.74717925256168</v>
       </c>
       <c r="AB7" t="n">
-        <v>74.97815479624012</v>
+        <v>98.16765591547245</v>
       </c>
       <c r="AC7" t="n">
-        <v>67.82234493500512</v>
+        <v>88.79867261409456</v>
       </c>
       <c r="AD7" t="n">
-        <v>54798.81394768124</v>
+        <v>71747.17925256168</v>
       </c>
       <c r="AE7" t="n">
-        <v>74978.15479624012</v>
+        <v>98167.65591547245</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.568791818671769e-06</v>
+        <v>1.249232410495274e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.636067708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>67822.34493500512</v>
+        <v>88798.67261409455</v>
       </c>
     </row>
   </sheetData>
@@ -6760,28 +6760,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.69660346142567</v>
+        <v>58.56732742351306</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.78762061399421</v>
+        <v>80.13440118895149</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.0815740150593</v>
+        <v>72.48648640883503</v>
       </c>
       <c r="AD2" t="n">
-        <v>43696.60346142566</v>
+        <v>58567.32742351307</v>
       </c>
       <c r="AE2" t="n">
-        <v>59787.62061399421</v>
+        <v>80134.40118895148</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.488178110795591e-06</v>
+        <v>1.520229008450095e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.929036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>54081.5740150593</v>
+        <v>72486.48640883503</v>
       </c>
     </row>
   </sheetData>
@@ -7057,28 +7057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.49035647541972</v>
+        <v>104.9568716279163</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.0764096486226</v>
+        <v>143.6066221316354</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.521047043598</v>
+        <v>129.901007668591</v>
       </c>
       <c r="AD2" t="n">
-        <v>88490.35647541971</v>
+        <v>104956.8716279163</v>
       </c>
       <c r="AE2" t="n">
-        <v>121076.4096486226</v>
+        <v>143606.6221316354</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.277004236270077e-06</v>
+        <v>9.320367038578503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.159505208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>109521.047043598</v>
+        <v>129901.007668591</v>
       </c>
     </row>
     <row r="3">
@@ -7163,28 +7163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.93247555617741</v>
+        <v>81.46143231295254</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.89752473948987</v>
+        <v>111.4591255152912</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.46309430823351</v>
+        <v>100.8216230100056</v>
       </c>
       <c r="AD3" t="n">
-        <v>56932.47555617741</v>
+        <v>81461.43231295254</v>
       </c>
       <c r="AE3" t="n">
-        <v>77897.52473948986</v>
+        <v>111459.1255152912</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.11322476304934e-06</v>
+        <v>1.204686659619619e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.994140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>70463.09430823351</v>
+        <v>100821.6230100056</v>
       </c>
     </row>
     <row r="4">
@@ -7269,28 +7269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.90358920666214</v>
+        <v>69.37001485060772</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.3850246941645</v>
+        <v>94.91511470762887</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.47669953038982</v>
+        <v>85.85654937415627</v>
       </c>
       <c r="AD4" t="n">
-        <v>52903.58920666214</v>
+        <v>69370.01485060772</v>
       </c>
       <c r="AE4" t="n">
-        <v>72385.0246941645</v>
+        <v>94915.11470762888</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.780561358138312e-06</v>
+        <v>1.303775679960959e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.688151041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>65476.69953038983</v>
+        <v>85856.54937415627</v>
       </c>
     </row>
     <row r="5">
@@ -7375,28 +7375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>51.57970010708569</v>
+        <v>68.04612575103127</v>
       </c>
       <c r="AB5" t="n">
-        <v>70.57362122225993</v>
+        <v>93.1037112357243</v>
       </c>
       <c r="AC5" t="n">
-        <v>63.83817386352251</v>
+        <v>84.21802370728895</v>
       </c>
       <c r="AD5" t="n">
-        <v>51579.70010708569</v>
+        <v>68046.12575103127</v>
       </c>
       <c r="AE5" t="n">
-        <v>70573.62122225993</v>
+        <v>93103.7112357243</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.979090512209667e-06</v>
+        <v>1.333254146346431e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.606770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>63838.1738635225</v>
+        <v>84218.02370728894</v>
       </c>
     </row>
   </sheetData>
@@ -7672,28 +7672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.70045030825047</v>
+        <v>122.7759686731902</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.6780663513586</v>
+        <v>167.9874968320468</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.9200193171651</v>
+        <v>151.9550059063754</v>
       </c>
       <c r="AD2" t="n">
-        <v>97700.45030825047</v>
+        <v>122775.9686731902</v>
       </c>
       <c r="AE2" t="n">
-        <v>133678.0663513586</v>
+        <v>167987.4968320468</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.677517748886553e-06</v>
+        <v>8.348463274045754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.589192708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>120920.0193171651</v>
+        <v>151955.0059063754</v>
       </c>
     </row>
     <row r="3">
@@ -7778,28 +7778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.2698631364447</v>
+        <v>85.9016240337173</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.77808271392929</v>
+        <v>117.5343917150721</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.73259552160971</v>
+        <v>106.317074330371</v>
       </c>
       <c r="AD3" t="n">
-        <v>69269.86313644469</v>
+        <v>85901.62403371729</v>
       </c>
       <c r="AE3" t="n">
-        <v>94778.0827139293</v>
+        <v>117534.3917150722</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.659954178678605e-06</v>
+        <v>1.12635220126107e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.143880208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>85732.59552160971</v>
+        <v>106317.074330371</v>
       </c>
     </row>
     <row r="4">
@@ -7884,28 +7884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.32618472868788</v>
+        <v>73.04319697198106</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.06797088165557</v>
+        <v>99.94092453544766</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.71271190630449</v>
+        <v>90.40270296577802</v>
       </c>
       <c r="AD4" t="n">
-        <v>56326.18472868788</v>
+        <v>73043.19697198106</v>
       </c>
       <c r="AE4" t="n">
-        <v>77067.97088165556</v>
+        <v>99940.92453544766</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.341112003709459e-06</v>
+        <v>1.226512541353608e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.805338541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>69712.7119063045</v>
+        <v>90402.70296577802</v>
       </c>
     </row>
     <row r="5">
@@ -7990,28 +7990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.7353628755916</v>
+        <v>70.4523751188848</v>
       </c>
       <c r="AB5" t="n">
-        <v>73.52309412325769</v>
+        <v>96.3960477770498</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.50615321046119</v>
+        <v>87.19614426993473</v>
       </c>
       <c r="AD5" t="n">
-        <v>53735.36287559161</v>
+        <v>70452.3751188848</v>
       </c>
       <c r="AE5" t="n">
-        <v>73523.09412325769</v>
+        <v>96396.0477770498</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.6974864455199e-06</v>
+        <v>1.278915353125469e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.649088541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>66506.1532104612</v>
+        <v>87196.14426993474</v>
       </c>
     </row>
     <row r="6">
@@ -8096,28 +8096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>53.20116978341925</v>
+        <v>69.91818202671243</v>
       </c>
       <c r="AB6" t="n">
-        <v>72.79218756761186</v>
+        <v>95.66514122140396</v>
       </c>
       <c r="AC6" t="n">
-        <v>65.84500335065219</v>
+        <v>86.53499441012573</v>
       </c>
       <c r="AD6" t="n">
-        <v>53201.16978341925</v>
+        <v>69918.18202671243</v>
       </c>
       <c r="AE6" t="n">
-        <v>72792.18756761187</v>
+        <v>95665.14122140396</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.782996810900957e-06</v>
+        <v>1.291489160491795e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.61328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>65845.00335065219</v>
+        <v>86534.99441012573</v>
       </c>
     </row>
   </sheetData>
@@ -8393,28 +8393,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.0487806805437</v>
+        <v>154.8801071601025</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.5702349574382</v>
+        <v>211.9137954444483</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.7186195510307</v>
+        <v>191.6890402301706</v>
       </c>
       <c r="AD2" t="n">
-        <v>129048.7806805437</v>
+        <v>154880.1071601025</v>
       </c>
       <c r="AE2" t="n">
-        <v>176570.2349574382</v>
+        <v>211913.7954444483</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.662140320137985e-06</v>
+        <v>6.745056437392064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.572265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>159718.6195510307</v>
+        <v>191689.0402301706</v>
       </c>
     </row>
     <row r="3">
@@ -8499,28 +8499,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.82816979527384</v>
+        <v>94.90690886591138</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.487935450376</v>
+        <v>129.8558197076017</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.32487634777519</v>
+        <v>117.4625625285303</v>
       </c>
       <c r="AD3" t="n">
-        <v>77828.16979527383</v>
+        <v>94906.90886591138</v>
       </c>
       <c r="AE3" t="n">
-        <v>106487.935450376</v>
+        <v>129855.8197076018</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.829737232678218e-06</v>
+        <v>9.88107605598817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.485677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>96324.87634777519</v>
+        <v>117462.5625285303</v>
       </c>
     </row>
     <row r="4">
@@ -8605,28 +8605,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.5992826770911</v>
+        <v>88.67802174772864</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.96529729617734</v>
+        <v>121.3331815534031</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.61562681741276</v>
+        <v>109.7533129981679</v>
       </c>
       <c r="AD4" t="n">
-        <v>71599.28267709109</v>
+        <v>88678.02174772864</v>
       </c>
       <c r="AE4" t="n">
-        <v>97965.29729617733</v>
+        <v>121333.1815534031</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.586306856675741e-06</v>
+        <v>1.0975660187366e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.039713541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>88615.62681741276</v>
+        <v>109753.3129981679</v>
       </c>
     </row>
     <row r="5">
@@ -8711,28 +8711,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.1315901033439</v>
+        <v>77.29558052000202</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.2746943978939</v>
+        <v>105.7592233077689</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.42251303783704</v>
+        <v>95.6657114693044</v>
       </c>
       <c r="AD5" t="n">
-        <v>60131.5901033439</v>
+        <v>77295.58052000203</v>
       </c>
       <c r="AE5" t="n">
-        <v>82274.69439789389</v>
+        <v>105759.2233077689</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.960121329435805e-06</v>
+        <v>1.15164846891489e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.84765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>74422.51303783704</v>
+        <v>95665.7114693044</v>
       </c>
     </row>
     <row r="6">
@@ -8817,28 +8817,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.04989261661124</v>
+        <v>75.21388303326938</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.42642405853618</v>
+        <v>102.9109529684112</v>
       </c>
       <c r="AC6" t="n">
-        <v>71.84607762209419</v>
+        <v>93.08927605356155</v>
       </c>
       <c r="AD6" t="n">
-        <v>58049.89261661124</v>
+        <v>75213.88303326938</v>
       </c>
       <c r="AE6" t="n">
-        <v>79426.42405853618</v>
+        <v>102910.9529684112</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.222977276671167e-06</v>
+        <v>1.189677744682252e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.723958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>71846.07762209419</v>
+        <v>93089.27605356155</v>
       </c>
     </row>
     <row r="7">
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>56.44274848376383</v>
+        <v>73.60673890042195</v>
       </c>
       <c r="AB7" t="n">
-        <v>77.22745855378034</v>
+        <v>100.7119874636554</v>
       </c>
       <c r="AC7" t="n">
-        <v>69.85697829884407</v>
+        <v>91.10017673031143</v>
       </c>
       <c r="AD7" t="n">
-        <v>56442.74848376383</v>
+        <v>73606.73890042194</v>
       </c>
       <c r="AE7" t="n">
-        <v>77227.45855378034</v>
+        <v>100711.9874636554</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.390403245210987e-06</v>
+        <v>1.213900473500777e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.65234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>69856.97829884407</v>
+        <v>91100.17673031143</v>
       </c>
     </row>
     <row r="8">
@@ -9029,28 +9029,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>56.0905968393481</v>
+        <v>73.25458725600623</v>
       </c>
       <c r="AB8" t="n">
-        <v>76.74562913805688</v>
+        <v>100.2301580479319</v>
       </c>
       <c r="AC8" t="n">
-        <v>69.42113400630529</v>
+        <v>90.66433243777266</v>
       </c>
       <c r="AD8" t="n">
-        <v>56090.5968393481</v>
+        <v>73254.58725600623</v>
       </c>
       <c r="AE8" t="n">
-        <v>76745.62913805689</v>
+        <v>100230.1580479319</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.435953649243178e-06</v>
+        <v>1.220490580722904e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.6328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>69421.13400630529</v>
+        <v>90664.33243777265</v>
       </c>
     </row>
   </sheetData>
@@ -9326,28 +9326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.81843413150779</v>
+        <v>97.02052097653262</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.63339410127563</v>
+        <v>132.7477570433377</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.12452280462158</v>
+        <v>120.0784974238041</v>
       </c>
       <c r="AD2" t="n">
-        <v>72818.43413150779</v>
+        <v>97020.52097653263</v>
       </c>
       <c r="AE2" t="n">
-        <v>99633.39410127563</v>
+        <v>132747.7570433377</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.881487504083748e-06</v>
+        <v>1.033382390655538e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>90124.52280462158</v>
+        <v>120078.497423804</v>
       </c>
     </row>
     <row r="3">
@@ -9432,28 +9432,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.71728359848266</v>
+        <v>68.90890206488032</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.13011314183014</v>
+        <v>94.28419985133657</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.24611637883956</v>
+        <v>85.28584814625373</v>
       </c>
       <c r="AD3" t="n">
-        <v>52717.28359848266</v>
+        <v>68908.90206488033</v>
       </c>
       <c r="AE3" t="n">
-        <v>72130.11314183014</v>
+        <v>94284.19985133657</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.691253148652145e-06</v>
+        <v>1.305152113001254e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.811848958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>65246.11637883956</v>
+        <v>85285.84814625373</v>
       </c>
     </row>
     <row r="4">
@@ -9538,28 +9538,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.02693272015357</v>
+        <v>66.21855118655124</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.44905638019809</v>
+        <v>90.60314308970453</v>
       </c>
       <c r="AC4" t="n">
-        <v>61.91637450814089</v>
+        <v>81.95610627555507</v>
       </c>
       <c r="AD4" t="n">
-        <v>50026.93272015358</v>
+        <v>66218.55118655124</v>
       </c>
       <c r="AE4" t="n">
-        <v>68449.05638019809</v>
+        <v>90603.14308970454</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.159705004104137e-06</v>
+        <v>1.375498807376086e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.619791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>61916.37450814089</v>
+        <v>81956.10627555507</v>
       </c>
     </row>
     <row r="5">
@@ -9644,28 +9644,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>50.08718343868627</v>
+        <v>66.27880190508394</v>
       </c>
       <c r="AB5" t="n">
-        <v>68.5314940713686</v>
+        <v>90.68558078087503</v>
       </c>
       <c r="AC5" t="n">
-        <v>61.99094446176813</v>
+        <v>82.0306762291823</v>
       </c>
       <c r="AD5" t="n">
-        <v>50087.18343868628</v>
+        <v>66278.80190508394</v>
       </c>
       <c r="AE5" t="n">
-        <v>68531.49407136859</v>
+        <v>90685.58078087503</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.16479576541094e-06</v>
+        <v>1.376263279168901e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.616536458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>61990.94446176813</v>
+        <v>82030.67622918231</v>
       </c>
     </row>
   </sheetData>
@@ -9941,28 +9941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.85769606322152</v>
+        <v>77.48882870136161</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.63642872261778</v>
+        <v>106.023633995013</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.55884675332496</v>
+        <v>95.90488717166072</v>
       </c>
       <c r="AD2" t="n">
-        <v>61857.69606322152</v>
+        <v>77488.82870136161</v>
       </c>
       <c r="AE2" t="n">
-        <v>84636.42872261778</v>
+        <v>106023.633995013</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.102173093387201e-06</v>
+        <v>1.242668164085962e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.261067708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>76558.84675332496</v>
+        <v>95904.88717166072</v>
       </c>
     </row>
     <row r="3">
@@ -10047,28 +10047,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.43838198013045</v>
+        <v>63.15476596429112</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.90728705890132</v>
+        <v>86.41113698394578</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.71262667996309</v>
+        <v>78.16417934901108</v>
       </c>
       <c r="AD3" t="n">
-        <v>47438.38198013045</v>
+        <v>63154.76596429112</v>
       </c>
       <c r="AE3" t="n">
-        <v>64907.28705890132</v>
+        <v>86411.13698394578</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.450166653312735e-06</v>
+        <v>1.449416238090892e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.65234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>58712.6266799631</v>
+        <v>78164.17934901107</v>
       </c>
     </row>
   </sheetData>
@@ -17773,28 +17773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.43587690306224</v>
+        <v>62.77239708324485</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.90385950194037</v>
+        <v>85.88796301197405</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.7095262442279</v>
+        <v>77.69093636664489</v>
       </c>
       <c r="AD2" t="n">
-        <v>47435.87690306224</v>
+        <v>62772.39708324485</v>
       </c>
       <c r="AE2" t="n">
-        <v>64903.85950194038</v>
+        <v>85887.96301197405</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.101363730179e-06</v>
+        <v>1.42207013006781e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.922526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>58709.52624422791</v>
+        <v>77690.93636664489</v>
       </c>
     </row>
     <row r="3">
@@ -17879,28 +17879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.80085366989432</v>
+        <v>61.13737385007693</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.66674858218693</v>
+        <v>83.65085209222062</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.68592205085013</v>
+        <v>75.66733217326711</v>
       </c>
       <c r="AD3" t="n">
-        <v>45800.85366989432</v>
+        <v>61137.37385007693</v>
       </c>
       <c r="AE3" t="n">
-        <v>62666.74858218693</v>
+        <v>83650.85209222062</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.544050937422176e-06</v>
+        <v>1.491239132982858e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.743489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>56685.92205085013</v>
+        <v>75667.33217326712</v>
       </c>
     </row>
   </sheetData>
@@ -18176,28 +18176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.16919594128134</v>
+        <v>64.66745691358996</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.64370719555535</v>
+        <v>88.48086747599019</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.09244812287466</v>
+        <v>80.03637766778041</v>
       </c>
       <c r="AD2" t="n">
-        <v>50169.19594128134</v>
+        <v>64667.45691358997</v>
       </c>
       <c r="AE2" t="n">
-        <v>68643.70719555535</v>
+        <v>88480.86747599019</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.199315603988215e-06</v>
+        <v>1.499190508063376e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>62092.44812287466</v>
+        <v>80036.37766778041</v>
       </c>
     </row>
   </sheetData>
@@ -18473,28 +18473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.10477295375176</v>
+        <v>117.8257676708228</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.3900578479609</v>
+        <v>161.2144134331559</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.2321295200543</v>
+        <v>145.8283360809902</v>
       </c>
       <c r="AD2" t="n">
-        <v>93104.77295375176</v>
+        <v>117825.7676708228</v>
       </c>
       <c r="AE2" t="n">
-        <v>127390.0578479609</v>
+        <v>161214.4134331559</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.955866601956925e-06</v>
+        <v>8.799082993492936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.380859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>115232.1295200543</v>
+        <v>145828.3360809902</v>
       </c>
     </row>
     <row r="3">
@@ -18579,28 +18579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.1456888512423</v>
+        <v>83.65482878366389</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.87169374496123</v>
+        <v>114.4602273323399</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.1035882366965</v>
+        <v>103.5363038817089</v>
       </c>
       <c r="AD3" t="n">
-        <v>67145.6888512423</v>
+        <v>83654.82878366389</v>
       </c>
       <c r="AE3" t="n">
-        <v>91871.69374496123</v>
+        <v>114460.2273323399</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.896545555739417e-06</v>
+        <v>1.16662048280294e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.059244791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>83103.58823669649</v>
+        <v>103536.3038817089</v>
       </c>
     </row>
     <row r="4">
@@ -18685,28 +18685,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.7337063539371</v>
+        <v>71.32809763237927</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.88907171413511</v>
+        <v>97.59424995416298</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.74176381722731</v>
+        <v>88.27999171295194</v>
       </c>
       <c r="AD4" t="n">
-        <v>54733.7063539371</v>
+        <v>71328.09763237927</v>
       </c>
       <c r="AE4" t="n">
-        <v>74889.07171413512</v>
+        <v>97594.24995416298</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.525318840354083e-06</v>
+        <v>1.259514240927034e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.759765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>67741.76381722731</v>
+        <v>88279.99171295195</v>
       </c>
     </row>
     <row r="5">
@@ -18791,28 +18791,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>52.32490585847248</v>
+        <v>68.91929713691465</v>
       </c>
       <c r="AB5" t="n">
-        <v>71.5932446074643</v>
+        <v>94.29842284749215</v>
       </c>
       <c r="AC5" t="n">
-        <v>64.7604858238937</v>
+        <v>85.29871371961833</v>
       </c>
       <c r="AD5" t="n">
-        <v>52324.90585847248</v>
+        <v>68919.29713691465</v>
       </c>
       <c r="AE5" t="n">
-        <v>71593.24460746429</v>
+        <v>94298.42284749215</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.894507727436366e-06</v>
+        <v>1.314057498437955e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.603515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>64760.4858238937</v>
+        <v>85298.71371961833</v>
       </c>
     </row>
     <row r="6">
@@ -18897,28 +18897,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>52.45986131529335</v>
+        <v>69.05425259373553</v>
       </c>
       <c r="AB6" t="n">
-        <v>71.77789661730107</v>
+        <v>94.48307485732893</v>
       </c>
       <c r="AC6" t="n">
-        <v>64.92751490507244</v>
+        <v>85.46574280079707</v>
       </c>
       <c r="AD6" t="n">
-        <v>52459.86131529335</v>
+        <v>69054.25259373552</v>
       </c>
       <c r="AE6" t="n">
-        <v>71777.89661730107</v>
+        <v>94483.07485732893</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.877569747020748e-06</v>
+        <v>1.311555113724198e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.610026041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>64927.51490507244</v>
+        <v>85465.74280079707</v>
       </c>
     </row>
   </sheetData>
@@ -19194,28 +19194,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.606249813882</v>
+        <v>148.107946989981</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.7552800012737</v>
+        <v>202.6478271330718</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.7449515240129</v>
+        <v>183.3074029295608</v>
       </c>
       <c r="AD2" t="n">
-        <v>122606.249813882</v>
+        <v>148107.946989981</v>
       </c>
       <c r="AE2" t="n">
-        <v>167755.2800012737</v>
+        <v>202647.8271330718</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.898585876555931e-06</v>
+        <v>7.11357463033144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.305338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>151744.9515240129</v>
+        <v>183307.4029295608</v>
       </c>
     </row>
     <row r="3">
@@ -19300,28 +19300,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.62550982353051</v>
+        <v>92.59822415892296</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.4741589025385</v>
+        <v>126.6969754395209</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.59873040380043</v>
+        <v>114.6051939239283</v>
       </c>
       <c r="AD3" t="n">
-        <v>75625.5098235305</v>
+        <v>92598.22415892297</v>
       </c>
       <c r="AE3" t="n">
-        <v>103474.1589025385</v>
+        <v>126696.9754395209</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.025662113416922e-06</v>
+        <v>1.020244883538131e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.397786458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>93598.73040380044</v>
+        <v>114605.1939239283</v>
       </c>
     </row>
     <row r="4">
@@ -19406,28 +19406,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.26508357320977</v>
+        <v>86.68135038618611</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.82559016956623</v>
+        <v>118.6012477096184</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.82539349375733</v>
+        <v>107.2821110861399</v>
       </c>
       <c r="AD4" t="n">
-        <v>61265.08357320977</v>
+        <v>86681.35038618611</v>
       </c>
       <c r="AE4" t="n">
-        <v>83825.59016956623</v>
+        <v>118601.2477096184</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.752369667371036e-06</v>
+        <v>1.125775102865688e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>75825.39349375734</v>
+        <v>107282.1110861399</v>
       </c>
     </row>
     <row r="5">
@@ -19512,28 +19512,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.44729620398561</v>
+        <v>75.50526188539867</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.97016917899043</v>
+        <v>103.309630368622</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.33792847140352</v>
+        <v>93.44990424224362</v>
       </c>
       <c r="AD5" t="n">
-        <v>58447.29620398561</v>
+        <v>75505.26188539866</v>
       </c>
       <c r="AE5" t="n">
-        <v>79970.16917899043</v>
+        <v>103309.630368622</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.13811871501056e-06</v>
+        <v>1.181792384344732e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.795572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>72337.92847140352</v>
+        <v>93449.90424224362</v>
       </c>
     </row>
     <row r="6">
@@ -19618,28 +19618,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.37992444464346</v>
+        <v>73.4378901260565</v>
       </c>
       <c r="AB6" t="n">
-        <v>77.1414999318549</v>
+        <v>100.4809611214865</v>
       </c>
       <c r="AC6" t="n">
-        <v>69.77922344715148</v>
+        <v>90.89119921799158</v>
       </c>
       <c r="AD6" t="n">
-        <v>56379.92444464346</v>
+        <v>73437.8901260565</v>
       </c>
       <c r="AE6" t="n">
-        <v>77141.49993185489</v>
+        <v>100480.9611214865</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.410183295473664e-06</v>
+        <v>1.221300759744589e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>69779.22344715148</v>
+        <v>90891.19921799158</v>
       </c>
     </row>
     <row r="7">
@@ -19724,28 +19724,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>55.43991896829683</v>
+        <v>72.49788464970989</v>
       </c>
       <c r="AB7" t="n">
-        <v>75.85534296900327</v>
+        <v>99.19480415863487</v>
       </c>
       <c r="AC7" t="n">
-        <v>68.61581549970138</v>
+        <v>89.72779127054146</v>
       </c>
       <c r="AD7" t="n">
-        <v>55439.91896829683</v>
+        <v>72497.88464970989</v>
       </c>
       <c r="AE7" t="n">
-        <v>75855.34296900328</v>
+        <v>99194.80415863487</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.504604034071774e-06</v>
+        <v>1.235012246847085e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.6328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>68615.81549970138</v>
+        <v>89727.79127054146</v>
       </c>
     </row>
     <row r="8">
@@ -19830,28 +19830,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>55.57551048141115</v>
+        <v>72.63347616282419</v>
       </c>
       <c r="AB8" t="n">
-        <v>76.04086525912157</v>
+        <v>99.38032644875318</v>
       </c>
       <c r="AC8" t="n">
-        <v>68.78363180283301</v>
+        <v>89.89560757367312</v>
       </c>
       <c r="AD8" t="n">
-        <v>55575.51048141115</v>
+        <v>72633.4761628242</v>
       </c>
       <c r="AE8" t="n">
-        <v>76040.86525912158</v>
+        <v>99380.32644875319</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.501282701558274e-06</v>
+        <v>1.234529933230415e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.6328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>68783.63180283301</v>
+        <v>89895.60757367311</v>
       </c>
     </row>
   </sheetData>
@@ -20127,28 +20127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.83698230461078</v>
+        <v>70.09863336082219</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.82091372474596</v>
+        <v>95.91204269768384</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.44361950261202</v>
+        <v>86.75833195603794</v>
       </c>
       <c r="AD2" t="n">
-        <v>48836.98230461078</v>
+        <v>70098.63336082219</v>
       </c>
       <c r="AE2" t="n">
-        <v>66820.91372474596</v>
+        <v>95912.04269768385</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.545677943524227e-06</v>
+        <v>1.424513598855149e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.645182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>60443.61950261203</v>
+        <v>86758.33195603793</v>
       </c>
     </row>
   </sheetData>
@@ -20424,28 +20424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.30315831676526</v>
+        <v>81.10298892237621</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.35066218098075</v>
+        <v>110.9686874548986</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.8231603868915</v>
+        <v>100.3779916697625</v>
       </c>
       <c r="AD2" t="n">
-        <v>65303.15831676526</v>
+        <v>81102.98892237621</v>
       </c>
       <c r="AE2" t="n">
-        <v>89350.66218098075</v>
+        <v>110968.6874548986</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.674617695790792e-06</v>
+        <v>1.168005149040764e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.43359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>80823.1603868915</v>
+        <v>100377.9916697625</v>
       </c>
     </row>
     <row r="3">
@@ -20530,28 +20530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.8554840311634</v>
+        <v>64.74056598279493</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.84622860325379</v>
+        <v>88.58089852982084</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.46651836464474</v>
+        <v>80.12686189822799</v>
       </c>
       <c r="AD3" t="n">
-        <v>48855.4840311634</v>
+        <v>64740.56598279493</v>
       </c>
       <c r="AE3" t="n">
-        <v>66846.2286032538</v>
+        <v>88580.89852982084</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.255254712270305e-06</v>
+        <v>1.408563343232646e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.675130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>60466.51836464474</v>
+        <v>80126.86189822799</v>
       </c>
     </row>
     <row r="4">
@@ -20636,28 +20636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>48.53853712475506</v>
+        <v>64.42361907638659</v>
       </c>
       <c r="AB4" t="n">
-        <v>66.41256786319546</v>
+        <v>88.14723778976253</v>
       </c>
       <c r="AC4" t="n">
-        <v>60.07424559697077</v>
+        <v>79.73458913055401</v>
       </c>
       <c r="AD4" t="n">
-        <v>48538.53712475506</v>
+        <v>64423.61907638659</v>
       </c>
       <c r="AE4" t="n">
-        <v>66412.56786319547</v>
+        <v>88147.23778976253</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.323082894212596e-06</v>
+        <v>1.418886159156379e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.649088541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>60074.24559697077</v>
+        <v>79734.58913055401</v>
       </c>
     </row>
   </sheetData>
@@ -20933,28 +20933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.09921961795385</v>
+        <v>100.5125422224754</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.1223095418694</v>
+        <v>137.5256945691388</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.18502245579892</v>
+        <v>124.4004352980217</v>
       </c>
       <c r="AD2" t="n">
-        <v>76099.21961795384</v>
+        <v>100512.5422224754</v>
       </c>
       <c r="AE2" t="n">
-        <v>104122.3095418694</v>
+        <v>137525.6945691388</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.598521492666563e-06</v>
+        <v>9.851003301131649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.964192708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>94185.02245579891</v>
+        <v>124400.4352980217</v>
       </c>
     </row>
     <row r="3">
@@ -21039,28 +21039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.90911274463327</v>
+        <v>71.24155505069542</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.12907047626929</v>
+        <v>97.47583857591395</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.95885743434387</v>
+        <v>88.17288135045156</v>
       </c>
       <c r="AD3" t="n">
-        <v>54909.11274463327</v>
+        <v>71241.55505069543</v>
       </c>
       <c r="AE3" t="n">
-        <v>75129.07047626929</v>
+        <v>97475.83857591395</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.379740936422506e-06</v>
+        <v>1.251020485711366e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.909505208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>67958.85743434387</v>
+        <v>88172.88135045156</v>
       </c>
     </row>
     <row r="4">
@@ -21145,28 +21145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.21202371692249</v>
+        <v>67.54446602298465</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.07055016450136</v>
+        <v>92.417318264146</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.38311520145159</v>
+        <v>83.59713911755929</v>
       </c>
       <c r="AD4" t="n">
-        <v>51212.02371692249</v>
+        <v>67544.46602298465</v>
       </c>
       <c r="AE4" t="n">
-        <v>70070.55016450136</v>
+        <v>92417.318264146</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.994645016232279e-06</v>
+        <v>1.342820173365903e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.642578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>63383.11520145159</v>
+        <v>83597.13911755929</v>
       </c>
     </row>
     <row r="5">
@@ -21251,28 +21251,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>50.875286384869</v>
+        <v>67.20772869093115</v>
       </c>
       <c r="AB5" t="n">
-        <v>69.60981129098339</v>
+        <v>91.95657939062804</v>
       </c>
       <c r="AC5" t="n">
-        <v>62.96634859937095</v>
+        <v>83.18037251547865</v>
       </c>
       <c r="AD5" t="n">
-        <v>50875.286384869</v>
+        <v>67207.72869093115</v>
       </c>
       <c r="AE5" t="n">
-        <v>69609.81129098339</v>
+        <v>91956.57939062803</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.079671026286159e-06</v>
+        <v>1.355513797333843e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.606770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>62966.34859937095</v>
+        <v>83180.37251547865</v>
       </c>
     </row>
   </sheetData>
